--- a/medicine/Premiers secours et secourisme/Coralie_Cahen/Coralie_Cahen.xlsx
+++ b/medicine/Premiers secours et secourisme/Coralie_Cahen/Coralie_Cahen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coralie Cahen (21 juin 1832 à Nancy[1] - 9 mars 1899 à Paris 6e[2]) est une philanthrope juive, fondatrice de la maison de refuge pour l'enfance israélite, qui durant la Guerre franco-allemande de 1870, apporte son aide sur le front.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coralie Cahen (21 juin 1832 à Nancy - 9 mars 1899 à Paris 6e) est une philanthrope juive, fondatrice de la maison de refuge pour l'enfance israélite, qui durant la Guerre franco-allemande de 1870, apporte son aide sur le front.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coralie Cahen est née Coralie Lévy[3] en 1832 à Nancy[4]. Elle est la fille de Pierre Lévy[5]. Elle épouse à 18 ans Mayer Cahen, médecin-chef de la Compagnie des chemins de fer du Nord et médecin en chef de l'Hôpital Rothschild. Ils ont une fille Lucie Cahen[3].
-Mayer Cahen est né le 20 janvier 1820 à Paris. Il est médecin comme son père Moïse Cahen (Moyse Cahen) né le 19 septembre 1785 à Metz. Ce dernier est le président du Consistoire israélite de Paris de 1832 à 1852 [6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coralie Cahen est née Coralie Lévy en 1832 à Nancy. Elle est la fille de Pierre Lévy. Elle épouse à 18 ans Mayer Cahen, médecin-chef de la Compagnie des chemins de fer du Nord et médecin en chef de l'Hôpital Rothschild. Ils ont une fille Lucie Cahen.
+Mayer Cahen est né le 20 janvier 1820 à Paris. Il est médecin comme son père Moïse Cahen (Moyse Cahen) né le 19 septembre 1785 à Metz. Ce dernier est le président du Consistoire israélite de Paris de 1832 à 1852 .
 </t>
         </is>
       </c>
